--- a/published-data/fonds-solidarite/fds-2022-06-01/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-01/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -779,13 +779,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>69574</v>
+        <v>69575</v>
       </c>
       <c r="D9" t="n">
         <v>10018</v>
       </c>
       <c r="E9" t="n">
-        <v>191367649</v>
+        <v>191370177</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -943,13 +943,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>37910</v>
+        <v>37915</v>
       </c>
       <c r="D13" t="n">
         <v>8466</v>
       </c>
       <c r="E13" t="n">
-        <v>97627926</v>
+        <v>97638190</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1189,13 +1189,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>108917</v>
+        <v>108918</v>
       </c>
       <c r="D19" t="n">
         <v>13558</v>
       </c>
       <c r="E19" t="n">
-        <v>344661124</v>
+        <v>344661139</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -3075,13 +3075,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>61055</v>
+        <v>61056</v>
       </c>
       <c r="D65" t="n">
         <v>6617</v>
       </c>
       <c r="E65" t="n">
-        <v>334099625</v>
+        <v>334109625</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -6847,13 +6847,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>21202</v>
+        <v>21203</v>
       </c>
       <c r="D157" t="n">
         <v>4283</v>
       </c>
       <c r="E157" t="n">
-        <v>77993905</v>
+        <v>77996841</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -7134,13 +7134,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>50576</v>
+        <v>50577</v>
       </c>
       <c r="D164" t="n">
         <v>11057</v>
       </c>
       <c r="E164" t="n">
-        <v>168916584</v>
+        <v>168925084</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -7298,13 +7298,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>285009</v>
+        <v>285014</v>
       </c>
       <c r="D168" t="n">
         <v>58122</v>
       </c>
       <c r="E168" t="n">
-        <v>1210409605</v>
+        <v>1210437825</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -7339,13 +7339,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>562603</v>
+        <v>562606</v>
       </c>
       <c r="D169" t="n">
         <v>60955</v>
       </c>
       <c r="E169" t="n">
-        <v>1284870498</v>
+        <v>1284953022</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -7380,13 +7380,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>367388</v>
+        <v>367399</v>
       </c>
       <c r="D170" t="n">
         <v>38111</v>
       </c>
       <c r="E170" t="n">
-        <v>2845682320</v>
+        <v>2845986686</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -7421,13 +7421,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>115160</v>
+        <v>115164</v>
       </c>
       <c r="D171" t="n">
         <v>20264</v>
       </c>
       <c r="E171" t="n">
-        <v>447067615</v>
+        <v>447107775</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -7462,13 +7462,13 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>21635</v>
+        <v>21637</v>
       </c>
       <c r="D172" t="n">
         <v>4332</v>
       </c>
       <c r="E172" t="n">
-        <v>73016533</v>
+        <v>73049293</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -7503,13 +7503,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>54389</v>
+        <v>54390</v>
       </c>
       <c r="D173" t="n">
         <v>11601</v>
       </c>
       <c r="E173" t="n">
-        <v>151875013</v>
+        <v>151889608</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -7544,13 +7544,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>357239</v>
+        <v>357244</v>
       </c>
       <c r="D174" t="n">
         <v>69788</v>
       </c>
       <c r="E174" t="n">
-        <v>1017871636</v>
+        <v>1017908199</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -7667,13 +7667,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>96757</v>
+        <v>96758</v>
       </c>
       <c r="D177" t="n">
         <v>16507</v>
       </c>
       <c r="E177" t="n">
-        <v>174743760</v>
+        <v>174746870</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -7749,13 +7749,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>235715</v>
+        <v>235719</v>
       </c>
       <c r="D179" t="n">
         <v>29338</v>
       </c>
       <c r="E179" t="n">
-        <v>812638241</v>
+        <v>812688286</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -7790,13 +7790,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>141484</v>
+        <v>141486</v>
       </c>
       <c r="D180" t="n">
         <v>28890</v>
       </c>
       <c r="E180" t="n">
-        <v>340843450</v>
+        <v>341034384</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -8815,13 +8815,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>11126</v>
+        <v>11127</v>
       </c>
       <c r="D205" t="n">
         <v>1314</v>
       </c>
       <c r="E205" t="n">
-        <v>44116847</v>
+        <v>44175571</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -9020,13 +9020,13 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>6422</v>
+        <v>6424</v>
       </c>
       <c r="D210" t="n">
         <v>979</v>
       </c>
       <c r="E210" t="n">
-        <v>19153407</v>
+        <v>19297530</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -10947,13 +10947,13 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>182550</v>
+        <v>182551</v>
       </c>
       <c r="D257" t="n">
         <v>20359</v>
       </c>
       <c r="E257" t="n">
-        <v>1063803294</v>
+        <v>1063828805</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
@@ -12710,13 +12710,13 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>15787</v>
+        <v>15788</v>
       </c>
       <c r="D300" t="n">
         <v>3358</v>
       </c>
       <c r="E300" t="n">
-        <v>78278786</v>
+        <v>78280031</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
@@ -13407,13 +13407,13 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>103581</v>
+        <v>103583</v>
       </c>
       <c r="D317" t="n">
         <v>21218</v>
       </c>
       <c r="E317" t="n">
-        <v>303082226</v>
+        <v>303298714</v>
       </c>
       <c r="F317" t="inlineStr">
         <is>
